--- a/SpreadSheeets/Tankowania_15_04_18.xlsx
+++ b/SpreadSheeets/Tankowania_15_04_18.xlsx
@@ -258,7 +258,7 @@
     <t>BP Motława 325, Gdańsk</t>
   </si>
   <si>
-    <t xml:space="preserve">BP Tender 532, </t>
+    <t xml:space="preserve">BP Tender 532,  Łódź</t>
   </si>
   <si>
     <t>Description</t>
@@ -6411,7 +6411,7 @@
         <v>43197</v>
       </c>
       <c r="E188" s="2">
-        <v>35.691</v>
+        <v>35.69</v>
       </c>
       <c r="F188" s="2">
         <v>4.66</v>
